--- a/biology/Zoologie/Gonatodes_rozei/Gonatodes_rozei.xlsx
+++ b/biology/Zoologie/Gonatodes_rozei/Gonatodes_rozei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonatodes rozei est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonatodes rozei est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Venezuela[1]. Elle se rencontre au Miranda, en Anzoátegui, au Guárico et au La Guaira. Elle vit entre 30 et 1 000 m d'altitude. On la trouve dans les arbres et sur les rochers dans la forêt tropicale humide de basse altitude et de pré-montagne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Venezuela. Elle se rencontre au Miranda, en Anzoátegui, au Guárico et au La Guaira. Elle vit entre 30 et 1 000 m d'altitude. On la trouve dans les arbres et sur les rochers dans la forêt tropicale humide de basse altitude et de pré-montagne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jánis Arnold Roze[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jánis Arnold Roze.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rivero-Blanco &amp; Schargel, 2012 : A strikingly polychromatic new species of Gonatodes (Squamata: Sphaerodactylidae) from northern Venezuela. Zootaxa, n. 3518, p. 66–78.</t>
         </is>
